--- a/incentives/state_scenarios_for_import.xlsx
+++ b/incentives/state_scenarios_for_import.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daltonstewart/Dropbox/Stewart-Guest_Shared/Code/Biorefinery-Tax-Incentives/incentives/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{425A8D7B-CC42-874F-83F4-F88E72FDBCCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC411590-8787-E74F-8553-3A3093A24C28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{163DA801-9318-4945-BD14-C5631C7A2B18}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{163DA801-9318-4945-BD14-C5631C7A2B18}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>State</t>
   </si>
@@ -189,12 +189,6 @@
     <t>Property Tax Rate (decimal)</t>
   </si>
   <si>
-    <t>State Motor Fuel Tax (USD/gal)</t>
-  </si>
-  <si>
-    <t>State Utility Tax Rate (decimal)</t>
-  </si>
-  <si>
     <t>Feedstock Prices</t>
   </si>
   <si>
@@ -217,6 +211,15 @@
   </si>
   <si>
     <t>16,17</t>
+  </si>
+  <si>
+    <t>State Motor Fuel Tax (decimal)</t>
+  </si>
+  <si>
+    <t>Methane GWP-100 (kg CO2-eq/kWh)</t>
+  </si>
+  <si>
+    <t>State Sales Tax Rate (decimal)</t>
   </si>
 </sst>
 </file>
@@ -596,8 +599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0865C41F-F8C1-F743-9CC7-E8990FCDD1B0}">
   <dimension ref="A1:O119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52:J52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -613,22 +616,25 @@
         <v>53</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>52</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>58</v>
+      <c r="J1" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="M1" s="5"/>
       <c r="N1" s="5"/>
@@ -645,10 +651,10 @@
         <v>6.9630000000000004E-3</v>
       </c>
       <c r="D2" s="4">
-        <v>0.24</v>
-      </c>
-      <c r="E2">
-        <v>0.02</v>
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.04</v>
       </c>
       <c r="F2" s="3">
         <v>6.0100000000000001E-2</v>
@@ -657,7 +663,10 @@
         <v>0.82354978354978503</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
+      </c>
+      <c r="J2" s="4">
+        <v>0.48249069999999999</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
@@ -671,13 +680,19 @@
         <v>1.1128000000000001E-2</v>
       </c>
       <c r="D3" s="4">
-        <v>8.9499999999999996E-2</v>
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
       </c>
       <c r="F3" s="3">
         <v>0.17100000000000001</v>
       </c>
       <c r="H3" s="4">
         <v>2.5634722222222202</v>
+      </c>
+      <c r="J3" s="4">
+        <v>0.50515179999999993</v>
       </c>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
@@ -694,13 +709,19 @@
         <v>1.9008000000000001E-2</v>
       </c>
       <c r="D4" s="4">
-        <v>0.19</v>
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>5.5999999999999994E-2</v>
       </c>
       <c r="F4" s="3">
         <v>6.5500000000000003E-2</v>
       </c>
       <c r="H4" s="4">
         <v>0.95596153846153598</v>
+      </c>
+      <c r="J4" s="4">
+        <v>0.65622580000000008</v>
       </c>
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
@@ -717,13 +738,19 @@
         <v>6.6039999999999996E-3</v>
       </c>
       <c r="D5" s="4">
-        <v>0.248</v>
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="F5" s="3">
         <v>5.6399999999999999E-2</v>
       </c>
       <c r="H5" s="4">
         <v>0.85480952380952302</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0.48249069999999999</v>
       </c>
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
@@ -740,13 +767,19 @@
         <v>7.548E-3</v>
       </c>
       <c r="D6" s="4">
-        <v>0.53300000000000003</v>
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>7.2499999999999995E-2</v>
       </c>
       <c r="F6" s="3">
         <v>0.13200000000000001</v>
       </c>
       <c r="H6" s="4">
         <v>1.0981586402266199</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0.61090359999999999</v>
       </c>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
@@ -763,7 +796,10 @@
         <v>2.1299999999999999E-2</v>
       </c>
       <c r="D7" s="4">
-        <v>0.23250000000000001</v>
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>2.8999999999999998E-2</v>
       </c>
       <c r="F7" s="3">
         <v>7.4700000000000003E-2</v>
@@ -773,6 +809,9 @@
       </c>
       <c r="I7">
         <v>10</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0.63356469999999998</v>
       </c>
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
@@ -789,13 +828,19 @@
         <v>1.6299999999999999E-2</v>
       </c>
       <c r="D8" s="4">
-        <v>0.25</v>
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>6.3500000000000001E-2</v>
       </c>
       <c r="F8" s="3">
         <v>0.13769999999999999</v>
       </c>
       <c r="H8" s="4">
         <v>1.11506849315068</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0.4673833</v>
       </c>
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
@@ -812,13 +857,19 @@
         <v>3.6549999999999998E-3</v>
       </c>
       <c r="D9" s="4">
-        <v>0.23</v>
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
       </c>
       <c r="F9" s="3">
         <v>7.9500000000000001E-2</v>
       </c>
       <c r="H9" s="4">
         <v>1.04588235294117</v>
+      </c>
+      <c r="J9" s="4">
+        <v>0.4673833</v>
       </c>
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
@@ -835,13 +886,19 @@
         <v>1.3871E-2</v>
       </c>
       <c r="D10" s="4">
-        <v>0.34395999999999999</v>
+        <v>0</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.06</v>
       </c>
       <c r="F10" s="3">
         <v>7.6499999999999999E-2</v>
       </c>
       <c r="H10" s="4">
         <v>0.82572104018912895</v>
+      </c>
+      <c r="J10" s="4">
+        <v>0.474937</v>
       </c>
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
@@ -858,13 +915,19 @@
         <v>1.1287999999999999E-2</v>
       </c>
       <c r="D11" s="4">
-        <v>0.27900000000000003</v>
+        <v>0</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.04</v>
       </c>
       <c r="F11" s="3">
         <v>0.06</v>
       </c>
       <c r="H11" s="4">
         <v>0.90413502109704202</v>
+      </c>
+      <c r="J11" s="4">
+        <v>0.474937</v>
       </c>
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
@@ -881,7 +944,10 @@
         <v>9.698E-3</v>
       </c>
       <c r="D12" s="4">
-        <v>0.16</v>
+        <v>0</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0.04</v>
       </c>
       <c r="F12" s="3">
         <v>0.26100000000000001</v>
@@ -891,6 +957,9 @@
       </c>
       <c r="I12">
         <v>11</v>
+      </c>
+      <c r="J12" s="4">
+        <v>0.50515179999999993</v>
       </c>
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
@@ -907,13 +976,19 @@
         <v>1.3247999999999998E-2</v>
       </c>
       <c r="D13" s="4">
-        <v>0.33</v>
+        <v>0</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0.06</v>
       </c>
       <c r="F13" s="3">
         <v>6.4699999999999994E-2</v>
       </c>
       <c r="H13" s="4">
         <v>1.0685826771653499</v>
+      </c>
+      <c r="J13" s="4">
+        <v>0.55802770000000002</v>
       </c>
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
@@ -930,13 +1005,19 @@
         <v>2.9756000000000001E-2</v>
       </c>
       <c r="D14" s="4">
-        <v>0.39100000000000001</v>
+        <v>0</v>
+      </c>
+      <c r="E14" s="2">
+        <v>6.25E-2</v>
       </c>
       <c r="F14" s="3">
         <v>6.8000000000000005E-2</v>
       </c>
       <c r="H14" s="4">
         <v>1</v>
+      </c>
+      <c r="J14" s="4">
+        <v>0.55802770000000002</v>
       </c>
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
@@ -953,13 +1034,19 @@
         <v>2.4735E-2</v>
       </c>
       <c r="D15" s="4">
-        <v>0.3</v>
+        <v>0</v>
+      </c>
+      <c r="E15" s="2">
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="F15" s="3">
         <v>7.3800000000000004E-2</v>
       </c>
       <c r="H15" s="4">
         <v>0.921747311827955</v>
+      </c>
+      <c r="J15" s="4">
+        <v>0.57313510000000001</v>
       </c>
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
@@ -976,7 +1063,10 @@
         <v>2.9024999999999999E-2</v>
       </c>
       <c r="D16" s="4">
-        <v>0.30499999999999999</v>
+        <v>0</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0.06</v>
       </c>
       <c r="F16" s="3">
         <v>6.4500000000000002E-2</v>
@@ -985,7 +1075,10 @@
         <v>1.05122881355932</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="J16" s="4">
+        <v>0.56558140000000001</v>
       </c>
       <c r="M16" s="5"/>
       <c r="N16" s="5"/>
@@ -1002,7 +1095,10 @@
         <v>2.9928E-2</v>
       </c>
       <c r="D17" s="4">
-        <v>0.24030000000000001</v>
+        <v>0</v>
+      </c>
+      <c r="E17" s="2">
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="F17" s="3">
         <v>7.5999999999999998E-2</v>
@@ -1012,6 +1108,9 @@
       </c>
       <c r="I17">
         <v>2</v>
+      </c>
+      <c r="J17" s="4">
+        <v>0.67133320000000007</v>
       </c>
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
@@ -1028,7 +1127,10 @@
         <v>7.3439999999999998E-3</v>
       </c>
       <c r="D18" s="4">
-        <v>0.26</v>
+        <v>0</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0.06</v>
       </c>
       <c r="F18" s="3">
         <v>5.6800000000000003E-2</v>
@@ -1037,7 +1139,10 @@
         <v>0.874117647058822</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
+      </c>
+      <c r="J18" s="4">
+        <v>0.49004439999999999</v>
       </c>
       <c r="M18" s="5"/>
       <c r="N18" s="5"/>
@@ -1054,7 +1159,10 @@
         <v>4.6979999999999991E-3</v>
       </c>
       <c r="D19" s="4">
-        <v>0.20125000000000001</v>
+        <v>0</v>
+      </c>
+      <c r="E19" s="2">
+        <v>4.4500000000000005E-2</v>
       </c>
       <c r="F19" s="3">
         <v>5.3499999999999999E-2</v>
@@ -1064,6 +1172,9 @@
       </c>
       <c r="I19">
         <v>15</v>
+      </c>
+      <c r="J19" s="4">
+        <v>0.474937</v>
       </c>
       <c r="M19" s="5"/>
       <c r="N19" s="5"/>
@@ -1080,13 +1191,19 @@
         <v>1.1445E-2</v>
       </c>
       <c r="D20" s="4">
-        <v>0.31403999999999999</v>
+        <v>0</v>
+      </c>
+      <c r="E20" s="2">
+        <v>5.5E-2</v>
       </c>
       <c r="F20" s="3">
         <v>9.3200000000000005E-2</v>
       </c>
       <c r="H20" s="4">
         <v>1.0423026315789401</v>
+      </c>
+      <c r="J20" s="4">
+        <v>0.4673833</v>
       </c>
       <c r="M20" s="5"/>
       <c r="N20" s="5"/>
@@ -1103,13 +1220,19 @@
         <v>8.6129999999999991E-3</v>
       </c>
       <c r="D21" s="4">
-        <v>0.36890499999999998</v>
+        <v>0</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0.06</v>
       </c>
       <c r="F21" s="3">
         <v>8.2299999999999998E-2</v>
       </c>
       <c r="H21" s="4">
         <v>0.98325966850828705</v>
+      </c>
+      <c r="J21" s="4">
+        <v>0.4673833</v>
       </c>
       <c r="M21" s="5"/>
       <c r="N21" s="5"/>
@@ -1126,13 +1249,19 @@
         <v>3.6919999999999994E-2</v>
       </c>
       <c r="D22" s="4">
-        <v>0.24</v>
+        <v>0</v>
+      </c>
+      <c r="E22" s="2">
+        <v>6.25E-2</v>
       </c>
       <c r="F22" s="3">
         <v>0.1489</v>
       </c>
       <c r="H22" s="4">
         <v>1.17718954248365</v>
+      </c>
+      <c r="J22" s="4">
+        <v>0.474937</v>
       </c>
       <c r="M22" s="5"/>
       <c r="N22" s="5"/>
@@ -1149,7 +1278,10 @@
         <v>2.0412000000000003E-2</v>
       </c>
       <c r="D23" s="4">
-        <v>0.26300000000000001</v>
+        <v>0</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0.06</v>
       </c>
       <c r="F23" s="3">
         <v>7.0999999999999994E-2</v>
@@ -1159,6 +1291,9 @@
       </c>
       <c r="I23">
         <v>3</v>
+      </c>
+      <c r="J23" s="4">
+        <v>0.50515179999999993</v>
       </c>
       <c r="M23" s="5"/>
       <c r="N23" s="5"/>
@@ -1175,13 +1310,19 @@
         <v>2.7510000000000003E-2</v>
       </c>
       <c r="D24" s="4">
-        <v>0.28599999999999998</v>
+        <v>0</v>
+      </c>
+      <c r="E24" s="2">
+        <v>6.8750000000000006E-2</v>
       </c>
       <c r="F24" s="3">
         <v>7.5200000000000003E-2</v>
       </c>
       <c r="H24" s="4">
         <v>1.0664848484848399</v>
+      </c>
+      <c r="J24" s="4">
+        <v>0.52781290000000003</v>
       </c>
       <c r="M24" s="5"/>
       <c r="N24" s="5"/>
@@ -1198,13 +1339,19 @@
         <v>9.2560000000000003E-3</v>
       </c>
       <c r="D25" s="4">
-        <v>0.184</v>
+        <v>0</v>
+      </c>
+      <c r="E25" s="2">
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="F25" s="3">
         <v>0.06</v>
       </c>
       <c r="H25" s="4">
         <v>0.91778925619834395</v>
+      </c>
+      <c r="J25" s="4">
+        <v>0.53536660000000003</v>
       </c>
       <c r="M25" s="5"/>
       <c r="N25" s="5"/>
@@ -1221,13 +1368,19 @@
         <v>1.8473E-2</v>
       </c>
       <c r="D26" s="4">
-        <v>0.17419999999999999</v>
+        <v>0</v>
+      </c>
+      <c r="E26" s="2">
+        <v>4.2249999999999996E-2</v>
       </c>
       <c r="F26" s="3">
         <v>7.22E-2</v>
       </c>
       <c r="H26" s="4">
         <v>1.01294685990338</v>
+      </c>
+      <c r="J26" s="4">
+        <v>0.57313510000000001</v>
       </c>
       <c r="M26" s="5"/>
       <c r="N26" s="5"/>
@@ -1244,7 +1397,10 @@
         <v>1.1536999999999999E-2</v>
       </c>
       <c r="D27" s="4">
-        <v>0.32750000000000001</v>
+        <v>0</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0</v>
       </c>
       <c r="F27" s="3">
         <v>5.1900000000000002E-2</v>
@@ -1253,7 +1409,10 @@
         <v>1.12787581699346</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
+      </c>
+      <c r="J27" s="4">
+        <v>0.56558140000000001</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
@@ -1267,7 +1426,10 @@
         <v>1.7776E-2</v>
       </c>
       <c r="D28" s="4">
-        <v>0.30599999999999999</v>
+        <v>0.05</v>
+      </c>
+      <c r="E28" s="2">
+        <v>5.5E-2</v>
       </c>
       <c r="F28" s="3">
         <v>7.5999999999999998E-2</v>
@@ -1277,6 +1439,9 @@
       </c>
       <c r="I28">
         <v>5</v>
+      </c>
+      <c r="J28" s="4">
+        <v>0.61090359999999999</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
@@ -1290,13 +1455,19 @@
         <v>8.3160000000000005E-3</v>
       </c>
       <c r="D29" s="4">
-        <v>0.23805000000000001</v>
+        <v>0</v>
+      </c>
+      <c r="E29" s="2">
+        <v>6.8499999999999991E-2</v>
       </c>
       <c r="F29" s="3">
         <v>6.0999999999999999E-2</v>
       </c>
       <c r="H29" s="4">
         <v>1.2103846153846101</v>
+      </c>
+      <c r="J29" s="4">
+        <v>0.54292030000000002</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
@@ -1310,13 +1481,19 @@
         <v>1.8600000000000002E-2</v>
       </c>
       <c r="D30" s="4">
-        <v>0.23824999999999999</v>
+        <v>0</v>
+      </c>
+      <c r="E30" s="2">
+        <v>0</v>
       </c>
       <c r="F30" s="3">
         <v>0.13420000000000001</v>
       </c>
       <c r="H30" s="4">
         <v>1.0900000000000001</v>
+      </c>
+      <c r="J30" s="4">
+        <v>0.4673833</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
@@ -1330,13 +1507,19 @@
         <v>1.89E-2</v>
       </c>
       <c r="D31" s="4">
-        <v>0.41399999999999998</v>
+        <v>0</v>
+      </c>
+      <c r="E31" s="2">
+        <v>6.6250000000000003E-2</v>
       </c>
       <c r="F31" s="3">
         <v>0.1007</v>
       </c>
       <c r="H31" s="4">
         <v>1.21164062499999</v>
+      </c>
+      <c r="J31" s="4">
+        <v>0.4673833</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
@@ -1350,7 +1533,10 @@
         <v>6.5449999999999996E-3</v>
       </c>
       <c r="D32" s="4">
-        <v>0.18875</v>
+        <v>0</v>
+      </c>
+      <c r="E32" s="2">
+        <v>5.1249999999999997E-2</v>
       </c>
       <c r="F32" s="3">
         <v>5.8400000000000001E-2</v>
@@ -1361,8 +1547,11 @@
       <c r="I32">
         <v>7</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J32" s="4">
+        <v>0.64867209999999997</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -1373,7 +1562,10 @@
         <v>7.4046000000000001E-2</v>
       </c>
       <c r="D33" s="4">
-        <v>0.40450000000000003</v>
+        <v>0</v>
+      </c>
+      <c r="E33" s="2">
+        <v>0.04</v>
       </c>
       <c r="F33" s="3">
         <v>6.0199999999999997E-2</v>
@@ -1381,8 +1573,11 @@
       <c r="H33" s="4">
         <v>1.1382673267326699</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J33" s="4">
+        <v>0.4673833</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -1393,7 +1588,10 @@
         <v>7.8000000000000005E-3</v>
       </c>
       <c r="D34" s="4">
-        <v>0.36349999999999999</v>
+        <v>0</v>
+      </c>
+      <c r="E34" s="2">
+        <v>4.7500000000000001E-2</v>
       </c>
       <c r="F34" s="3">
         <v>6.3299999999999995E-2</v>
@@ -1401,8 +1599,11 @@
       <c r="H34" s="4">
         <v>0.884571428571434</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J34" s="4">
+        <v>0.474937</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -1413,7 +1614,10 @@
         <v>1.562E-2</v>
       </c>
       <c r="D35" s="4">
-        <v>0.23025000000000001</v>
+        <v>0</v>
+      </c>
+      <c r="E35" s="2">
+        <v>0.05</v>
       </c>
       <c r="F35" s="3">
         <v>7.9799999999999996E-2</v>
@@ -1421,8 +1625,11 @@
       <c r="H35" s="4">
         <v>1.06910869565217</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J35" s="4">
+        <v>0.56558140000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -1433,7 +1640,10 @@
         <v>1.7544000000000001E-2</v>
       </c>
       <c r="D36" s="4">
-        <v>0.38500000000000001</v>
+        <v>0</v>
+      </c>
+      <c r="E36" s="2">
+        <v>5.7500000000000002E-2</v>
       </c>
       <c r="F36" s="3">
         <v>7.0099999999999996E-2</v>
@@ -1441,8 +1651,11 @@
       <c r="H36" s="4">
         <v>0.93595617529880604</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J36" s="4">
+        <v>0.4673833</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -1453,7 +1666,10 @@
         <v>7.8440000000000003E-3</v>
       </c>
       <c r="D37" s="4">
-        <v>0.2</v>
+        <v>0</v>
+      </c>
+      <c r="E37" s="2">
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="F37" s="3">
         <v>5.3400000000000003E-2</v>
@@ -1461,8 +1677,11 @@
       <c r="H37" s="4">
         <v>0.87760000000000005</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J37" s="4">
+        <v>0.5882425</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -1473,7 +1692,10 @@
         <v>8.6999999999999994E-3</v>
       </c>
       <c r="D38" s="4">
-        <v>0.36</v>
+        <v>0</v>
+      </c>
+      <c r="E38" s="2">
+        <v>0</v>
       </c>
       <c r="F38" s="3">
         <v>5.8599999999999999E-2</v>
@@ -1484,8 +1706,11 @@
       <c r="I38">
         <v>6</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J38" s="4">
+        <v>0.54292030000000002</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -1496,7 +1721,10 @@
         <v>2.1060000000000002E-2</v>
       </c>
       <c r="D39" s="4">
-        <v>0.58599999999999997</v>
+        <v>0</v>
+      </c>
+      <c r="E39" s="2">
+        <v>0.06</v>
       </c>
       <c r="F39" s="3">
         <v>6.8400000000000002E-2</v>
@@ -1504,8 +1732,11 @@
       <c r="H39" s="4">
         <v>1.07753164556962</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J39" s="4">
+        <v>0.4673833</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -1516,7 +1747,10 @@
         <v>2.9430000000000005E-2</v>
       </c>
       <c r="D40" s="4">
-        <v>0.35119</v>
+        <v>0</v>
+      </c>
+      <c r="E40" s="2">
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="F40" s="3">
         <v>0.15390000000000001</v>
@@ -1524,8 +1758,11 @@
       <c r="H40" s="4">
         <v>1.12333333333333</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J40" s="4">
+        <v>0.4673833</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -1536,7 +1773,10 @@
         <v>1.5100000000000001E-2</v>
       </c>
       <c r="D41" s="4">
-        <v>0.22750000000000001</v>
+        <v>0</v>
+      </c>
+      <c r="E41" s="2">
+        <v>0.06</v>
       </c>
       <c r="F41" s="3">
         <v>6.0999999999999999E-2</v>
@@ -1545,10 +1785,13 @@
         <v>0.93315508021390203</v>
       </c>
       <c r="I41" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+      <c r="J41" s="4">
+        <v>0.474937</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -1559,7 +1802,10 @@
         <v>1.6768000000000002E-2</v>
       </c>
       <c r="D42" s="4">
-        <v>0.3</v>
+        <v>0</v>
+      </c>
+      <c r="E42" s="2">
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="F42" s="3">
         <v>7.7700000000000005E-2</v>
@@ -1567,8 +1813,11 @@
       <c r="H42" s="4">
         <v>0.99818750000000001</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J42" s="4">
+        <v>0.55047400000000002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -1579,7 +1828,10 @@
         <v>1.0880000000000001E-2</v>
       </c>
       <c r="D43" s="4">
-        <v>0.27400000000000002</v>
+        <v>0</v>
+      </c>
+      <c r="E43" s="2">
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="F43" s="3">
         <v>5.6800000000000003E-2</v>
@@ -1587,8 +1839,11 @@
       <c r="H43" s="4">
         <v>0.85303763440860003</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J43" s="4">
+        <v>0.4673833</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -1599,7 +1854,10 @@
         <v>2.2082000000000001E-2</v>
       </c>
       <c r="D44" s="4">
-        <v>0.2</v>
+        <v>0</v>
+      </c>
+      <c r="E44" s="2">
+        <v>6.25E-2</v>
       </c>
       <c r="F44" s="3">
         <v>5.3900000000000003E-2</v>
@@ -1607,8 +1865,11 @@
       <c r="H44" s="4">
         <v>0.90491631799163097</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J44" s="4">
+        <v>0.52781290000000003</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -1619,7 +1880,10 @@
         <v>1.098E-2</v>
       </c>
       <c r="D45" s="4">
-        <v>0.3175</v>
+        <v>0</v>
+      </c>
+      <c r="E45" s="2">
+        <v>4.8499999999999995E-2</v>
       </c>
       <c r="F45" s="3">
         <v>5.8999999999999997E-2</v>
@@ -1630,8 +1894,11 @@
       <c r="I45">
         <v>18</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J45" s="4">
+        <v>0.51270550000000004</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -1642,7 +1909,10 @@
         <v>1.8921E-2</v>
       </c>
       <c r="D46" s="4">
-        <v>0.30730000000000002</v>
+        <v>0</v>
+      </c>
+      <c r="E46" s="2">
+        <v>0.06</v>
       </c>
       <c r="F46" s="3">
         <v>0.1066</v>
@@ -1650,8 +1920,11 @@
       <c r="H46" s="4">
         <v>1.06</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J46" s="4">
+        <v>0.4673833</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -1662,7 +1935,10 @@
         <v>5.9940000000000002E-3</v>
       </c>
       <c r="D47" s="4">
-        <v>0.16200000000000001</v>
+        <v>0</v>
+      </c>
+      <c r="E47" s="2">
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="F47" s="3">
         <v>6.8599999999999994E-2</v>
@@ -1673,8 +1949,11 @@
       <c r="I47">
         <v>19</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J47" s="4">
+        <v>0.48249069999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -1685,7 +1964,10 @@
         <v>9.1999999999999998E-3</v>
       </c>
       <c r="D48" s="4">
-        <v>0.51995199999999997</v>
+        <v>0</v>
+      </c>
+      <c r="E48" s="2">
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="F48" s="3">
         <v>4.7100000000000003E-2</v>
@@ -1693,8 +1975,11 @@
       <c r="H48" s="4">
         <v>1.1595070422535101</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J48" s="4">
+        <v>0.56558140000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -1705,7 +1990,10 @@
         <v>1.0878000000000001E-2</v>
       </c>
       <c r="D49" s="4">
-        <v>0.35699999999999998</v>
+        <v>0</v>
+      </c>
+      <c r="E49" s="2">
+        <v>0.06</v>
       </c>
       <c r="F49" s="3">
         <v>6.4000000000000001E-2</v>
@@ -1713,8 +2001,11 @@
       <c r="H49" s="4">
         <v>1.00439999999999</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J49" s="4">
+        <v>0.4673833</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -1725,7 +2016,10 @@
         <v>1.8127999999999998E-2</v>
       </c>
       <c r="D50" s="4">
-        <v>0.32900000000000001</v>
+        <v>0</v>
+      </c>
+      <c r="E50" s="2">
+        <v>0.05</v>
       </c>
       <c r="F50" s="3">
         <v>7.3300000000000004E-2</v>
@@ -1733,8 +2027,11 @@
       <c r="H50" s="4">
         <v>1.0709574468084999</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J50" s="4">
+        <v>0.56558140000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -1745,7 +2042,10 @@
         <v>5.7999999999999996E-3</v>
       </c>
       <c r="D51" s="4">
-        <v>0.24</v>
+        <v>0</v>
+      </c>
+      <c r="E51" s="2">
+        <v>0.04</v>
       </c>
       <c r="F51" s="3">
         <v>6.7100000000000007E-2</v>
@@ -1753,16 +2053,19 @@
       <c r="H51" s="4">
         <v>1.0227906976744101</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J51" s="4">
+        <v>0.48249069999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
       <c r="B52" s="2"/>
       <c r="C52" s="3"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F53" s="3"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F54" s="3"/>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">

--- a/incentives/state_scenarios_for_import.xlsx
+++ b/incentives/state_scenarios_for_import.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daltonstewart/Dropbox/Stewart-Guest_Shared/Code/Biorefinery-Tax-Incentives/incentives/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC411590-8787-E74F-8553-3A3093A24C28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A235A168-B73A-5D42-8D06-84C9AC399D80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{163DA801-9318-4945-BD14-C5631C7A2B18}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15860" xr2:uid="{163DA801-9318-4945-BD14-C5631C7A2B18}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,19 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t>State</t>
   </si>
@@ -220,6 +227,9 @@
   </si>
   <si>
     <t>State Sales Tax Rate (decimal)</t>
+  </si>
+  <si>
+    <t>Electricity GWP-100 (kg CO2-eq/kWh)</t>
   </si>
 </sst>
 </file>
@@ -273,7 +283,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -281,6 +291,9 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -597,15 +610,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0865C41F-F8C1-F743-9CC7-E8990FCDD1B0}">
-  <dimension ref="A1:O119"/>
+  <dimension ref="A1:P119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -634,13 +647,16 @@
         <v>56</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="M1" s="5"/>
       <c r="N1" s="5"/>
       <c r="O1" s="5"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P1" s="5"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -665,11 +681,14 @@
       <c r="I2" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J2" s="6">
+        <v>0.46</v>
+      </c>
+      <c r="K2" s="4">
         <v>0.48249069999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -691,14 +710,17 @@
       <c r="H3" s="4">
         <v>2.5634722222222202</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="K3" s="4">
         <v>0.50515179999999993</v>
       </c>
-      <c r="M3" s="5"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P3" s="5"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -720,14 +742,17 @@
       <c r="H4" s="4">
         <v>0.95596153846153598</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4">
+        <v>0.36</v>
+      </c>
+      <c r="K4" s="4">
         <v>0.65622580000000008</v>
       </c>
-      <c r="M4" s="5"/>
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P4" s="5"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -749,14 +774,17 @@
       <c r="H5" s="4">
         <v>0.85480952380952302</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5">
+        <v>0.66</v>
+      </c>
+      <c r="K5" s="4">
         <v>0.48249069999999999</v>
       </c>
-      <c r="M5" s="5"/>
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P5" s="5"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -778,14 +806,17 @@
       <c r="H6" s="4">
         <v>1.0981586402266199</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6">
+        <v>0.22</v>
+      </c>
+      <c r="K6" s="4">
         <v>0.61090359999999999</v>
       </c>
-      <c r="M6" s="5"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P6" s="5"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -810,14 +841,17 @@
       <c r="I7">
         <v>10</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7">
+        <v>0.36</v>
+      </c>
+      <c r="K7" s="4">
         <v>0.63356469999999998</v>
       </c>
-      <c r="M7" s="5"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="5"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -839,14 +873,17 @@
       <c r="H8" s="4">
         <v>1.11506849315068</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8">
+        <v>0.26</v>
+      </c>
+      <c r="K8" s="4">
         <v>0.4673833</v>
       </c>
-      <c r="M8" s="5"/>
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="5"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -868,14 +905,17 @@
       <c r="H9" s="4">
         <v>1.04588235294117</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9">
+        <v>0.47</v>
+      </c>
+      <c r="K9" s="4">
         <v>0.4673833</v>
       </c>
-      <c r="M9" s="5"/>
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="5"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -898,13 +938,16 @@
         <v>0.82572104018912895</v>
       </c>
       <c r="J10" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="K10" s="4">
         <v>0.474937</v>
       </c>
-      <c r="M10" s="5"/>
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="5"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -926,14 +969,17 @@
       <c r="H11" s="4">
         <v>0.90413502109704202</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11">
+        <v>0.46</v>
+      </c>
+      <c r="K11" s="4">
         <v>0.474937</v>
       </c>
-      <c r="M11" s="5"/>
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="5"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -959,13 +1005,16 @@
         <v>11</v>
       </c>
       <c r="J12" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="K12" s="4">
         <v>0.50515179999999993</v>
       </c>
-      <c r="M12" s="5"/>
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="5"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -987,14 +1036,17 @@
       <c r="H13" s="4">
         <v>1.0685826771653499</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J13">
+        <v>0.36</v>
+      </c>
+      <c r="K13" s="4">
         <v>0.55802770000000002</v>
       </c>
-      <c r="M13" s="5"/>
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="5"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1016,14 +1068,17 @@
       <c r="H14" s="4">
         <v>1</v>
       </c>
-      <c r="J14" s="4">
+      <c r="J14">
+        <v>0.66</v>
+      </c>
+      <c r="K14" s="4">
         <v>0.55802770000000002</v>
       </c>
-      <c r="M14" s="5"/>
       <c r="N14" s="5"/>
       <c r="O14" s="5"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="5"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1045,14 +1100,17 @@
       <c r="H15" s="4">
         <v>0.921747311827955</v>
       </c>
-      <c r="J15" s="4">
+      <c r="J15">
+        <v>0.66</v>
+      </c>
+      <c r="K15" s="4">
         <v>0.57313510000000001</v>
       </c>
-      <c r="M15" s="5"/>
       <c r="N15" s="5"/>
       <c r="O15" s="5"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="5"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1077,14 +1135,17 @@
       <c r="I16" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="J16" s="4">
+      <c r="J16" s="6">
+        <v>0.66</v>
+      </c>
+      <c r="K16" s="4">
         <v>0.56558140000000001</v>
       </c>
-      <c r="M16" s="5"/>
       <c r="N16" s="5"/>
       <c r="O16" s="5"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="5"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -1109,14 +1170,17 @@
       <c r="I17">
         <v>2</v>
       </c>
-      <c r="J17" s="4">
+      <c r="J17">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="K17" s="4">
         <v>0.67133320000000007</v>
       </c>
-      <c r="M17" s="5"/>
       <c r="N17" s="5"/>
       <c r="O17" s="5"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="5"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -1141,14 +1205,17 @@
       <c r="I18" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="J18" s="4">
+      <c r="J18" s="7">
+        <v>0.46499999999999997</v>
+      </c>
+      <c r="K18" s="4">
         <v>0.49004439999999999</v>
       </c>
-      <c r="M18" s="5"/>
       <c r="N18" s="5"/>
       <c r="O18" s="5"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="5"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -1174,13 +1241,16 @@
         <v>15</v>
       </c>
       <c r="J19" s="4">
+        <v>0.55666666666666675</v>
+      </c>
+      <c r="K19" s="4">
         <v>0.474937</v>
       </c>
-      <c r="M19" s="5"/>
       <c r="N19" s="5"/>
       <c r="O19" s="5"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="5"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -1202,14 +1272,17 @@
       <c r="H20" s="4">
         <v>1.0423026315789401</v>
       </c>
-      <c r="J20" s="4">
+      <c r="J20">
+        <v>0.26</v>
+      </c>
+      <c r="K20" s="4">
         <v>0.4673833</v>
       </c>
-      <c r="M20" s="5"/>
       <c r="N20" s="5"/>
       <c r="O20" s="5"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="5"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -1231,14 +1304,17 @@
       <c r="H21" s="4">
         <v>0.98325966850828705</v>
       </c>
-      <c r="J21" s="4">
+      <c r="J21">
+        <v>0.47</v>
+      </c>
+      <c r="K21" s="4">
         <v>0.4673833</v>
       </c>
-      <c r="M21" s="5"/>
       <c r="N21" s="5"/>
       <c r="O21" s="5"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="5"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -1260,14 +1336,17 @@
       <c r="H22" s="4">
         <v>1.17718954248365</v>
       </c>
-      <c r="J22" s="4">
+      <c r="J22">
+        <v>0.26</v>
+      </c>
+      <c r="K22" s="4">
         <v>0.474937</v>
       </c>
-      <c r="M22" s="5"/>
       <c r="N22" s="5"/>
       <c r="O22" s="5"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="5"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -1292,14 +1371,17 @@
       <c r="I23">
         <v>3</v>
       </c>
-      <c r="J23" s="4">
+      <c r="J23">
+        <v>0.66</v>
+      </c>
+      <c r="K23" s="4">
         <v>0.50515179999999993</v>
       </c>
-      <c r="M23" s="5"/>
       <c r="N23" s="5"/>
       <c r="O23" s="5"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="5"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -1321,14 +1403,17 @@
       <c r="H24" s="4">
         <v>1.0664848484848399</v>
       </c>
-      <c r="J24" s="4">
+      <c r="J24">
+        <v>0.66</v>
+      </c>
+      <c r="K24" s="4">
         <v>0.52781290000000003</v>
       </c>
-      <c r="M24" s="5"/>
       <c r="N24" s="5"/>
       <c r="O24" s="5"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="5"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -1350,14 +1435,17 @@
       <c r="H25" s="4">
         <v>0.91778925619834395</v>
       </c>
-      <c r="J25" s="4">
+      <c r="J25">
+        <v>0.46</v>
+      </c>
+      <c r="K25" s="4">
         <v>0.53536660000000003</v>
       </c>
-      <c r="M25" s="5"/>
       <c r="N25" s="5"/>
       <c r="O25" s="5"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="5"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -1380,13 +1468,16 @@
         <v>1.01294685990338</v>
       </c>
       <c r="J26" s="4">
+        <v>0.55666666666666675</v>
+      </c>
+      <c r="K26" s="4">
         <v>0.57313510000000001</v>
       </c>
-      <c r="M26" s="5"/>
       <c r="N26" s="5"/>
       <c r="O26" s="5"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="5"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -1411,11 +1502,14 @@
       <c r="I27" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="J27" s="4">
+      <c r="J27" s="6">
+        <v>0.36</v>
+      </c>
+      <c r="K27" s="4">
         <v>0.56558140000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -1441,10 +1535,13 @@
         <v>5</v>
       </c>
       <c r="J28" s="4">
+        <v>0.60499999999999998</v>
+      </c>
+      <c r="K28" s="4">
         <v>0.61090359999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -1466,11 +1563,14 @@
       <c r="H29" s="4">
         <v>1.2103846153846101</v>
       </c>
-      <c r="J29" s="4">
+      <c r="J29">
+        <v>0.36</v>
+      </c>
+      <c r="K29" s="4">
         <v>0.54292030000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -1492,11 +1592,14 @@
       <c r="H30" s="4">
         <v>1.0900000000000001</v>
       </c>
-      <c r="J30" s="4">
+      <c r="J30">
+        <v>0.26</v>
+      </c>
+      <c r="K30" s="4">
         <v>0.4673833</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -1518,11 +1621,14 @@
       <c r="H31" s="4">
         <v>1.21164062499999</v>
       </c>
-      <c r="J31" s="4">
+      <c r="J31">
+        <v>0.47</v>
+      </c>
+      <c r="K31" s="4">
         <v>0.4673833</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -1547,11 +1653,14 @@
       <c r="I32">
         <v>7</v>
       </c>
-      <c r="J32" s="4">
+      <c r="J32">
+        <v>0.36</v>
+      </c>
+      <c r="K32" s="4">
         <v>0.64867209999999997</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -1573,11 +1682,14 @@
       <c r="H33" s="4">
         <v>1.1382673267326699</v>
       </c>
-      <c r="J33" s="4">
+      <c r="J33">
+        <v>0.26</v>
+      </c>
+      <c r="K33" s="4">
         <v>0.4673833</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -1599,11 +1711,14 @@
       <c r="H34" s="4">
         <v>0.884571428571434</v>
       </c>
-      <c r="J34" s="4">
+      <c r="J34">
+        <v>0.46</v>
+      </c>
+      <c r="K34" s="4">
         <v>0.474937</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -1626,10 +1741,13 @@
         <v>1.06910869565217</v>
       </c>
       <c r="J35" s="4">
+        <v>0.60499999999999998</v>
+      </c>
+      <c r="K35" s="4">
         <v>0.56558140000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -1651,11 +1769,14 @@
       <c r="H36" s="4">
         <v>0.93595617529880604</v>
       </c>
-      <c r="J36" s="4">
+      <c r="J36">
+        <v>0.47</v>
+      </c>
+      <c r="K36" s="4">
         <v>0.4673833</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -1677,11 +1798,14 @@
       <c r="H37" s="4">
         <v>0.87760000000000005</v>
       </c>
-      <c r="J37" s="4">
+      <c r="J37">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="K37" s="4">
         <v>0.5882425</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -1706,11 +1830,14 @@
       <c r="I38">
         <v>6</v>
       </c>
-      <c r="J38" s="4">
+      <c r="J38">
+        <v>0.36</v>
+      </c>
+      <c r="K38" s="4">
         <v>0.54292030000000002</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -1732,11 +1859,14 @@
       <c r="H39" s="4">
         <v>1.07753164556962</v>
       </c>
-      <c r="J39" s="4">
+      <c r="J39">
+        <v>0.47</v>
+      </c>
+      <c r="K39" s="4">
         <v>0.4673833</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -1758,11 +1888,14 @@
       <c r="H40" s="4">
         <v>1.12333333333333</v>
       </c>
-      <c r="J40" s="4">
+      <c r="J40">
+        <v>0.26</v>
+      </c>
+      <c r="K40" s="4">
         <v>0.4673833</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -1787,11 +1920,14 @@
       <c r="I41" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="J41" s="4">
+      <c r="J41" s="6">
+        <v>0.46</v>
+      </c>
+      <c r="K41" s="4">
         <v>0.474937</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -1814,10 +1950,13 @@
         <v>0.99818750000000001</v>
       </c>
       <c r="J42" s="4">
+        <v>0.60499999999999998</v>
+      </c>
+      <c r="K42" s="4">
         <v>0.55047400000000002</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -1839,11 +1978,14 @@
       <c r="H43" s="4">
         <v>0.85303763440860003</v>
       </c>
-      <c r="J43" s="4">
+      <c r="J43">
+        <v>0.46</v>
+      </c>
+      <c r="K43" s="4">
         <v>0.4673833</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -1865,11 +2007,14 @@
       <c r="H44" s="4">
         <v>0.90491631799163097</v>
       </c>
-      <c r="J44" s="4">
+      <c r="J44">
+        <v>0.47</v>
+      </c>
+      <c r="K44" s="4">
         <v>0.52781290000000003</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -1894,11 +2039,14 @@
       <c r="I45">
         <v>18</v>
       </c>
-      <c r="J45" s="4">
+      <c r="J45">
+        <v>0.36</v>
+      </c>
+      <c r="K45" s="4">
         <v>0.51270550000000004</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -1920,11 +2068,14 @@
       <c r="H46" s="4">
         <v>1.06</v>
       </c>
-      <c r="J46" s="4">
+      <c r="J46">
+        <v>0.26</v>
+      </c>
+      <c r="K46" s="4">
         <v>0.4673833</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -1949,11 +2100,14 @@
       <c r="I47">
         <v>19</v>
       </c>
-      <c r="J47" s="4">
+      <c r="J47">
+        <v>0.47</v>
+      </c>
+      <c r="K47" s="4">
         <v>0.48249069999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -1975,11 +2129,14 @@
       <c r="H48" s="4">
         <v>1.1595070422535101</v>
       </c>
-      <c r="J48" s="4">
+      <c r="J48">
+        <v>0.36</v>
+      </c>
+      <c r="K48" s="4">
         <v>0.56558140000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -2001,11 +2158,14 @@
       <c r="H49" s="4">
         <v>1.00439999999999</v>
       </c>
-      <c r="J49" s="4">
+      <c r="J49">
+        <v>0.47</v>
+      </c>
+      <c r="K49" s="4">
         <v>0.4673833</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -2027,11 +2187,14 @@
       <c r="H50" s="4">
         <v>1.0709574468084999</v>
       </c>
-      <c r="J50" s="4">
+      <c r="J50">
+        <v>0.66</v>
+      </c>
+      <c r="K50" s="4">
         <v>0.56558140000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -2053,19 +2216,22 @@
       <c r="H51" s="4">
         <v>1.0227906976744101</v>
       </c>
-      <c r="J51" s="4">
+      <c r="J51">
+        <v>0.36</v>
+      </c>
+      <c r="K51" s="4">
         <v>0.48249069999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
       <c r="B52" s="2"/>
       <c r="C52" s="3"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="F53" s="3"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="F54" s="3"/>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
@@ -2222,8 +2388,8 @@
       <c r="B119" s="3"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="M3:O26">
-    <sortCondition ref="O3:O26"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="N3:P26">
+    <sortCondition ref="P3:P26"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/incentives/state_scenarios_for_import.xlsx
+++ b/incentives/state_scenarios_for_import.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daltonstewart/Dropbox/Stewart-Guest_Shared/Code/Biorefinery-Tax-Incentives/incentives/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daltonstewart/Dropbox/Stewart-Guest_Shared/Code/BioLocE/incentives/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB0646E4-20AF-9841-A469-72CD771103EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DD929AB-4C1B-C44D-B72F-2358BB7D3AE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15860" xr2:uid="{163DA801-9318-4945-BD14-C5631C7A2B18}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15920" xr2:uid="{163DA801-9318-4945-BD14-C5631C7A2B18}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t>State</t>
   </si>
@@ -230,6 +230,15 @@
   </si>
   <si>
     <t>Electricity GWP-100 (kg CO2-eq/kWh)</t>
+  </si>
+  <si>
+    <t>CS Price (USD/kg)</t>
+  </si>
+  <si>
+    <t>SC Price (USD/kg)</t>
+  </si>
+  <si>
+    <t>CN Price (USD/kg)</t>
   </si>
 </sst>
 </file>
@@ -610,15 +619,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0865C41F-F8C1-F743-9CC7-E8990FCDD1B0}">
-  <dimension ref="A1:P119"/>
+  <dimension ref="A1:Q119"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -652,11 +661,20 @@
       <c r="K1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="N1" s="5"/>
+      <c r="L1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="O1" s="5"/>
       <c r="P1" s="5"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q1" s="5"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -687,8 +705,12 @@
       <c r="K2" s="4">
         <v>0.48249069999999999</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="L2" s="4"/>
+      <c r="M2" s="4">
+        <v>0.10100000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -716,11 +738,13 @@
       <c r="K3" s="4">
         <v>0.50515179999999993</v>
       </c>
-      <c r="N3" s="5"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q3" s="5"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -748,11 +772,13 @@
       <c r="K4" s="4">
         <v>0.65622580000000008</v>
       </c>
-      <c r="N4" s="5"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
       <c r="O4" s="5"/>
       <c r="P4" s="5"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q4" s="5"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -780,11 +806,15 @@
       <c r="K5" s="4">
         <v>0.48249069999999999</v>
       </c>
-      <c r="N5" s="5"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4">
+        <v>0.1</v>
+      </c>
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q5" s="5"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -812,11 +842,15 @@
       <c r="K6" s="4">
         <v>0.61090359999999999</v>
       </c>
-      <c r="N6" s="5"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4">
+        <v>9.9000000000000005E-2</v>
+      </c>
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q6" s="5"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -847,11 +881,15 @@
       <c r="K7" s="4">
         <v>0.63356469999999998</v>
       </c>
-      <c r="N7" s="5"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4">
+        <v>0.10100000000000001</v>
+      </c>
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="5"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -879,11 +917,13 @@
       <c r="K8" s="4">
         <v>0.4673833</v>
       </c>
-      <c r="N8" s="5"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
       <c r="O8" s="5"/>
       <c r="P8" s="5"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="5"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -911,11 +951,15 @@
       <c r="K9" s="4">
         <v>0.4673833</v>
       </c>
-      <c r="N9" s="5"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4">
+        <v>0.107</v>
+      </c>
       <c r="O9" s="5"/>
       <c r="P9" s="5"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="5"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -943,11 +987,18 @@
       <c r="K10" s="4">
         <v>0.474937</v>
       </c>
-      <c r="N10" s="5"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="N10" s="4">
+        <v>4.0454826894677567E-2</v>
+      </c>
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="5"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -975,11 +1026,15 @@
       <c r="K11" s="4">
         <v>0.474937</v>
       </c>
-      <c r="N11" s="5"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4">
+        <v>0.1</v>
+      </c>
       <c r="O11" s="5"/>
       <c r="P11" s="5"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="5"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1010,11 +1065,16 @@
       <c r="K12" s="4">
         <v>0.50515179999999993</v>
       </c>
-      <c r="N12" s="5"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4">
+        <v>4.4864072332789565E-2</v>
+      </c>
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="5"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1042,11 +1102,13 @@
       <c r="K13" s="4">
         <v>0.55802770000000002</v>
       </c>
-      <c r="N13" s="5"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="5"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1074,11 +1136,15 @@
       <c r="K14" s="4">
         <v>0.55802770000000002</v>
       </c>
-      <c r="N14" s="5"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4">
+        <v>9.9000000000000005E-2</v>
+      </c>
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="5"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1106,11 +1172,15 @@
       <c r="K15" s="4">
         <v>0.57313510000000001</v>
       </c>
-      <c r="N15" s="5"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4">
+        <v>0.1</v>
+      </c>
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="5"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1141,11 +1211,15 @@
       <c r="K16" s="4">
         <v>0.56558140000000001</v>
       </c>
-      <c r="N16" s="5"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4">
+        <v>9.8000000000000004E-2</v>
+      </c>
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="5"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -1176,11 +1250,15 @@
       <c r="K17" s="4">
         <v>0.67133320000000007</v>
       </c>
-      <c r="N17" s="5"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4">
+        <v>9.2999999999999999E-2</v>
+      </c>
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="5"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -1211,11 +1289,15 @@
       <c r="K18" s="4">
         <v>0.49004439999999999</v>
       </c>
-      <c r="N18" s="5"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4">
+        <v>9.5000000000000001E-2</v>
+      </c>
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="5"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -1246,11 +1328,18 @@
       <c r="K19" s="4">
         <v>0.474937</v>
       </c>
-      <c r="N19" s="5"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="N19" s="4">
+        <v>4.6407308236128764E-2</v>
+      </c>
       <c r="O19" s="5"/>
       <c r="P19" s="5"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="5"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -1278,11 +1367,13 @@
       <c r="K20" s="4">
         <v>0.4673833</v>
       </c>
-      <c r="N20" s="5"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
       <c r="O20" s="5"/>
       <c r="P20" s="5"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="5"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -1310,11 +1401,15 @@
       <c r="K21" s="4">
         <v>0.4673833</v>
       </c>
-      <c r="N21" s="5"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4">
+        <v>9.8000000000000004E-2</v>
+      </c>
       <c r="O21" s="5"/>
       <c r="P21" s="5"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="5"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -1342,11 +1437,13 @@
       <c r="K22" s="4">
         <v>0.474937</v>
       </c>
-      <c r="N22" s="5"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
       <c r="O22" s="5"/>
       <c r="P22" s="5"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="5"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -1377,11 +1474,15 @@
       <c r="K23" s="4">
         <v>0.50515179999999993</v>
       </c>
-      <c r="N23" s="5"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4">
+        <v>0.10299999999999999</v>
+      </c>
       <c r="O23" s="5"/>
       <c r="P23" s="5"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="5"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -1409,11 +1510,15 @@
       <c r="K24" s="4">
         <v>0.52781290000000003</v>
       </c>
-      <c r="N24" s="5"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4">
+        <v>9.6000000000000002E-2</v>
+      </c>
       <c r="O24" s="5"/>
       <c r="P24" s="5"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="5"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -1441,11 +1546,15 @@
       <c r="K25" s="4">
         <v>0.53536660000000003</v>
       </c>
-      <c r="N25" s="5"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4">
+        <v>9.6000000000000002E-2</v>
+      </c>
       <c r="O25" s="5"/>
       <c r="P25" s="5"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="5"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -1473,11 +1582,15 @@
       <c r="K26" s="4">
         <v>0.57313510000000001</v>
       </c>
-      <c r="N26" s="5"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4">
+        <v>9.0999999999999998E-2</v>
+      </c>
       <c r="O26" s="5"/>
       <c r="P26" s="5"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="5"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -1508,8 +1621,10 @@
       <c r="K27" s="4">
         <v>0.56558140000000001</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -1540,8 +1655,12 @@
       <c r="K28" s="4">
         <v>0.61090359999999999</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="L28" s="4"/>
+      <c r="M28" s="4">
+        <v>8.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -1569,8 +1688,10 @@
       <c r="K29" s="4">
         <v>0.54292030000000002</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -1598,8 +1719,10 @@
       <c r="K30" s="4">
         <v>0.4673833</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -1627,8 +1750,12 @@
       <c r="K31" s="4">
         <v>0.4673833</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="L31" s="4"/>
+      <c r="M31" s="4">
+        <v>0.108</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -1659,8 +1786,10 @@
       <c r="K32" s="4">
         <v>0.64867209999999997</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -1688,8 +1817,12 @@
       <c r="K33" s="4">
         <v>0.4673833</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="4"/>
+      <c r="M33" s="4">
+        <v>0.104</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -1717,8 +1850,12 @@
       <c r="K34" s="4">
         <v>0.474937</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="4"/>
+      <c r="M34" s="4">
+        <v>9.8000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -1746,8 +1883,12 @@
       <c r="K35" s="4">
         <v>0.56558140000000001</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="4"/>
+      <c r="M35" s="4">
+        <v>9.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -1775,8 +1916,12 @@
       <c r="K36" s="4">
         <v>0.4673833</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L36" s="4"/>
+      <c r="M36" s="4">
+        <v>0.10100000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -1804,8 +1949,12 @@
       <c r="K37" s="4">
         <v>0.5882425</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L37" s="4"/>
+      <c r="M37" s="4">
+        <v>9.4E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -1836,8 +1985,10 @@
       <c r="K38" s="4">
         <v>0.54292030000000002</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -1865,8 +2016,12 @@
       <c r="K39" s="4">
         <v>0.4673833</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="4"/>
+      <c r="M39" s="4">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -1894,8 +2049,10 @@
       <c r="K40" s="4">
         <v>0.4673833</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -1926,8 +2083,12 @@
       <c r="K41" s="4">
         <v>0.474937</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="4"/>
+      <c r="M41" s="4">
+        <v>0.104</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -1955,8 +2116,12 @@
       <c r="K42" s="4">
         <v>0.55047400000000002</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="4"/>
+      <c r="M42" s="4">
+        <v>8.3000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -1984,8 +2149,12 @@
       <c r="K43" s="4">
         <v>0.4673833</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="4"/>
+      <c r="M43" s="4">
+        <v>9.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -2013,8 +2182,15 @@
       <c r="K44" s="4">
         <v>0.52781290000000003</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="4"/>
+      <c r="M44" s="4">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="N44" s="4">
+        <v>2.1495071510795983E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -2045,8 +2221,10 @@
       <c r="K45" s="4">
         <v>0.51270550000000004</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="4"/>
+      <c r="M45" s="4"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -2074,8 +2252,10 @@
       <c r="K46" s="4">
         <v>0.4673833</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="4"/>
+      <c r="M46" s="4"/>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -2106,8 +2286,12 @@
       <c r="K47" s="4">
         <v>0.48249069999999999</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="4"/>
+      <c r="M47" s="4">
+        <v>0.10100000000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -2135,8 +2319,10 @@
       <c r="K48" s="4">
         <v>0.56558140000000001</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="4"/>
+      <c r="M48" s="4"/>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -2164,8 +2350,12 @@
       <c r="K49" s="4">
         <v>0.4673833</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="4"/>
+      <c r="M49" s="4">
+        <v>9.9000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -2193,8 +2383,12 @@
       <c r="K50" s="4">
         <v>0.56558140000000001</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="4"/>
+      <c r="M50" s="4">
+        <v>0.10199999999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -2222,16 +2416,17 @@
       <c r="K51" s="4">
         <v>0.48249069999999999</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="4"/>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
       <c r="B52" s="2"/>
       <c r="C52" s="3"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="F53" s="3"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="F54" s="3"/>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
@@ -2388,8 +2583,8 @@
       <c r="B119" s="3"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="N3:P26">
-    <sortCondition ref="P3:P26"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="O3:Q26">
+    <sortCondition ref="Q3:Q26"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
